--- a/训练中心创客交叉融合空间建设/ref/训练中心李兆基科技大楼各类空间面积统计.xlsx
+++ b/训练中心创客交叉融合空间建设/ref/训练中心李兆基科技大楼各类空间面积统计.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="79">
   <si>
     <t>用途</t>
   </si>
@@ -263,6 +263,18 @@
   </si>
   <si>
     <t>分类统计</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>限时创新开放</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>实习专用</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>行政办公</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -380,19 +392,19 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -676,10 +688,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA87"/>
+  <dimension ref="A1:AA93"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="R39" sqref="R39"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -691,13 +703,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
@@ -732,7 +744,7 @@
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.15">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="7" t="s">
         <v>74</v>
       </c>
       <c r="B3" t="s">
@@ -791,7 +803,7 @@
       </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.15">
-      <c r="A4" s="5"/>
+      <c r="A4" s="7"/>
       <c r="B4" t="s">
         <v>1</v>
       </c>
@@ -848,7 +860,7 @@
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.15">
-      <c r="A5" s="5"/>
+      <c r="A5" s="7"/>
       <c r="B5" t="s">
         <v>2</v>
       </c>
@@ -905,7 +917,7 @@
       </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.15">
-      <c r="A6" s="5"/>
+      <c r="A6" s="7"/>
       <c r="B6" t="s">
         <v>11</v>
       </c>
@@ -962,7 +974,7 @@
       </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.15">
-      <c r="A7" s="5"/>
+      <c r="A7" s="7"/>
       <c r="B7" t="s">
         <v>3</v>
       </c>
@@ -1013,7 +1025,7 @@
       </c>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.15">
-      <c r="A8" s="5"/>
+      <c r="A8" s="7"/>
       <c r="B8" t="s">
         <v>4</v>
       </c>
@@ -1064,7 +1076,7 @@
       </c>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.15">
-      <c r="A9" s="5"/>
+      <c r="A9" s="7"/>
       <c r="B9" t="s">
         <v>5</v>
       </c>
@@ -1115,7 +1127,7 @@
       </c>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.15">
-      <c r="A10" s="5"/>
+      <c r="A10" s="7"/>
       <c r="B10" t="s">
         <v>6</v>
       </c>
@@ -1163,7 +1175,7 @@
       </c>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.15">
-      <c r="A11" s="5"/>
+      <c r="A11" s="7"/>
       <c r="B11" t="s">
         <v>7</v>
       </c>
@@ -1208,7 +1220,7 @@
       </c>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.15">
-      <c r="A12" s="5"/>
+      <c r="A12" s="7"/>
       <c r="B12" t="s">
         <v>8</v>
       </c>
@@ -1253,7 +1265,7 @@
       </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.15">
-      <c r="A13" s="5"/>
+      <c r="A13" s="7"/>
       <c r="B13" t="s">
         <v>9</v>
       </c>
@@ -1276,33 +1288,33 @@
       </c>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.15">
-      <c r="A15" s="5"/>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="5"/>
-      <c r="J15" s="5"/>
-      <c r="K15" s="5"/>
-      <c r="L15" s="5"/>
-      <c r="M15" s="5"/>
-      <c r="N15" s="5"/>
-      <c r="O15" s="5"/>
-      <c r="P15" s="5"/>
-      <c r="Q15" s="5"/>
-      <c r="R15" s="5"/>
-      <c r="S15" s="5"/>
-      <c r="T15" s="5"/>
-      <c r="U15" s="5"/>
-      <c r="V15" s="5"/>
-      <c r="W15" s="5"/>
-      <c r="X15" s="5"/>
-      <c r="Y15" s="5"/>
-      <c r="Z15" s="5"/>
-      <c r="AA15" s="5"/>
+      <c r="A15" s="7"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="7"/>
+      <c r="L15" s="7"/>
+      <c r="M15" s="7"/>
+      <c r="N15" s="7"/>
+      <c r="O15" s="7"/>
+      <c r="P15" s="7"/>
+      <c r="Q15" s="7"/>
+      <c r="R15" s="7"/>
+      <c r="S15" s="7"/>
+      <c r="T15" s="7"/>
+      <c r="U15" s="7"/>
+      <c r="V15" s="7"/>
+      <c r="W15" s="7"/>
+      <c r="X15" s="7"/>
+      <c r="Y15" s="7"/>
+      <c r="Z15" s="7"/>
+      <c r="AA15" s="7"/>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
@@ -1311,7 +1323,7 @@
       <c r="B16">
         <v>1107</v>
       </c>
-      <c r="C16" s="7">
+      <c r="C16" s="6">
         <v>0.1425260718424102</v>
       </c>
     </row>
@@ -1322,7 +1334,7 @@
       <c r="B17">
         <v>5429</v>
       </c>
-      <c r="C17" s="7">
+      <c r="C17" s="6">
         <v>0.69898287627140465</v>
       </c>
     </row>
@@ -1333,7 +1345,7 @@
       <c r="B18">
         <v>619</v>
       </c>
-      <c r="C18" s="7">
+      <c r="C18" s="6">
         <v>7.9696150379812022E-2</v>
       </c>
     </row>
@@ -1344,7 +1356,7 @@
       <c r="B19">
         <v>612</v>
       </c>
-      <c r="C19" s="7">
+      <c r="C19" s="6">
         <v>7.8794901506373111E-2</v>
       </c>
     </row>
@@ -1357,104 +1369,104 @@
       </c>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A21" s="5"/>
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
-      <c r="I21" s="5"/>
-      <c r="J21" s="5"/>
-      <c r="K21" s="5"/>
-      <c r="L21" s="5"/>
+      <c r="A21" s="7"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="7"/>
+      <c r="K21" s="7"/>
+      <c r="L21" s="7"/>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A22" s="5" t="s">
+      <c r="A22" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="C22" s="7">
+      <c r="C22" s="6">
         <f>C23/$O$23</f>
-        <v>0.1425260718424102</v>
-      </c>
-      <c r="D22" s="5"/>
-      <c r="F22" s="7">
+        <v>0.24771469035663704</v>
+      </c>
+      <c r="D22" s="7"/>
+      <c r="F22" s="6">
         <f>F23/$O$23</f>
-        <v>0.69898287627140465</v>
-      </c>
-      <c r="G22" s="5"/>
-      <c r="I22" s="7">
+        <v>0.6460666924166345</v>
+      </c>
+      <c r="G22" s="7"/>
+      <c r="I22" s="6">
         <f>I23/$O$23</f>
-        <v>7.9696150379812022E-2</v>
-      </c>
-      <c r="J22" s="5"/>
-      <c r="L22" s="7">
+        <v>3.6693704132869834E-2</v>
+      </c>
+      <c r="J22" s="7"/>
+      <c r="L22" s="6">
         <f>L23/$O$23</f>
-        <v>7.8794901506373111E-2</v>
+        <v>6.9524913093858637E-2</v>
       </c>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A23" s="5"/>
+      <c r="A23" s="7"/>
       <c r="B23" s="1" t="s">
         <v>66</v>
       </c>
       <c r="C23" s="1">
-        <f>SUM(C25:C86)</f>
-        <v>1107</v>
-      </c>
-      <c r="D23" s="5"/>
+        <f>SUM(C25:C92)</f>
+        <v>1924</v>
+      </c>
+      <c r="D23" s="7"/>
       <c r="E23" s="2" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="F23" s="2">
-        <f>SUM(F25:F86)</f>
-        <v>5429</v>
-      </c>
-      <c r="G23" s="5"/>
+        <f>SUM(F25:F92)</f>
+        <v>5018</v>
+      </c>
+      <c r="G23" s="7"/>
       <c r="H23" s="3" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="I23" s="3">
-        <f>SUM(I25:I86)</f>
-        <v>619</v>
-      </c>
-      <c r="J23" s="5"/>
+        <f>SUM(I25:I92)</f>
+        <v>285</v>
+      </c>
+      <c r="J23" s="7"/>
       <c r="K23" s="4" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="L23" s="4">
-        <f>SUM(L25:L86)</f>
-        <v>612</v>
-      </c>
-      <c r="N23" s="6" t="s">
+        <f>SUM(L25:L92)</f>
+        <v>540</v>
+      </c>
+      <c r="N23" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="O23" s="6">
+      <c r="O23" s="5">
         <f>SUM(C23,F23,I23,L23)</f>
         <v>7767</v>
       </c>
-      <c r="S23" s="7"/>
+      <c r="S23" s="6"/>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A24" s="9"/>
-      <c r="B24" s="9"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="9"/>
-      <c r="F24" s="9"/>
-      <c r="G24" s="9"/>
-      <c r="H24" s="9"/>
-      <c r="I24" s="9"/>
-      <c r="J24" s="9"/>
-      <c r="K24" s="9"/>
-      <c r="L24" s="9"/>
-      <c r="N24" s="6"/>
-      <c r="O24" s="6"/>
-      <c r="S24" s="7"/>
+      <c r="A24" s="8"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="8"/>
+      <c r="J24" s="8"/>
+      <c r="K24" s="8"/>
+      <c r="L24" s="8"/>
+      <c r="N24" s="5"/>
+      <c r="O24" s="5"/>
+      <c r="S24" s="6"/>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A25" s="5">
+      <c r="A25" s="7">
         <v>6</v>
       </c>
       <c r="B25" t="s">
@@ -1463,125 +1475,125 @@
       <c r="C25">
         <v>144</v>
       </c>
-      <c r="D25" s="5"/>
-      <c r="G25" s="5"/>
-      <c r="J25" s="5"/>
-      <c r="S25" s="7"/>
+      <c r="D25" s="7"/>
+      <c r="G25" s="7"/>
+      <c r="J25" s="7"/>
+      <c r="S25" s="6"/>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A26" s="5"/>
+      <c r="A26" s="7"/>
       <c r="B26" t="s">
         <v>2</v>
       </c>
       <c r="C26">
         <v>45</v>
       </c>
-      <c r="D26" s="5"/>
-      <c r="G26" s="5"/>
-      <c r="J26" s="5"/>
-      <c r="S26" s="7"/>
+      <c r="D26" s="7"/>
+      <c r="G26" s="7"/>
+      <c r="J26" s="7"/>
+      <c r="S26" s="6"/>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A27" s="5"/>
+      <c r="A27" s="7"/>
       <c r="B27" t="s">
         <v>11</v>
       </c>
       <c r="C27">
         <v>41</v>
       </c>
-      <c r="D27" s="5"/>
-      <c r="G27" s="5"/>
-      <c r="J27" s="5"/>
-      <c r="S27" s="7"/>
+      <c r="D27" s="7"/>
+      <c r="G27" s="7"/>
+      <c r="J27" s="7"/>
+      <c r="S27" s="6"/>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A28" s="5"/>
+      <c r="A28" s="7"/>
       <c r="B28" t="s">
         <v>3</v>
       </c>
       <c r="C28">
         <v>45</v>
       </c>
-      <c r="D28" s="5"/>
-      <c r="G28" s="5"/>
-      <c r="J28" s="5"/>
+      <c r="D28" s="7"/>
+      <c r="G28" s="7"/>
+      <c r="J28" s="7"/>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A29" s="5"/>
+      <c r="A29" s="7"/>
       <c r="B29" t="s">
         <v>4</v>
       </c>
       <c r="C29">
         <v>45</v>
       </c>
-      <c r="D29" s="5"/>
-      <c r="G29" s="5"/>
-      <c r="J29" s="5"/>
+      <c r="D29" s="7"/>
+      <c r="G29" s="7"/>
+      <c r="J29" s="7"/>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A30" s="5"/>
+      <c r="A30" s="7"/>
       <c r="B30" t="s">
         <v>5</v>
       </c>
       <c r="C30">
         <v>57</v>
       </c>
-      <c r="D30" s="5"/>
-      <c r="G30" s="5"/>
-      <c r="J30" s="5"/>
+      <c r="D30" s="7"/>
+      <c r="G30" s="7"/>
+      <c r="J30" s="7"/>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A31" s="5"/>
+      <c r="A31" s="7"/>
       <c r="B31" t="s">
         <v>6</v>
       </c>
       <c r="C31">
         <v>45</v>
       </c>
-      <c r="D31" s="5"/>
-      <c r="G31" s="5"/>
-      <c r="J31" s="5"/>
+      <c r="D31" s="7"/>
+      <c r="G31" s="7"/>
+      <c r="J31" s="7"/>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A32" s="5"/>
+      <c r="A32" s="7"/>
       <c r="B32" t="s">
         <v>7</v>
       </c>
       <c r="C32">
         <v>48</v>
       </c>
-      <c r="D32" s="5"/>
-      <c r="G32" s="5"/>
-      <c r="J32" s="5"/>
+      <c r="D32" s="7"/>
+      <c r="G32" s="7"/>
+      <c r="J32" s="7"/>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A33" s="5"/>
+      <c r="A33" s="7"/>
       <c r="B33" t="s">
         <v>8</v>
       </c>
       <c r="C33">
         <v>71</v>
       </c>
-      <c r="D33" s="5"/>
-      <c r="G33" s="5"/>
-      <c r="J33" s="5"/>
+      <c r="D33" s="7"/>
+      <c r="G33" s="7"/>
+      <c r="J33" s="7"/>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A34" s="9"/>
-      <c r="B34" s="9"/>
-      <c r="C34" s="9"/>
-      <c r="D34" s="9"/>
-      <c r="E34" s="9"/>
-      <c r="F34" s="9"/>
-      <c r="G34" s="9"/>
-      <c r="H34" s="9"/>
-      <c r="I34" s="9"/>
-      <c r="J34" s="9"/>
-      <c r="K34" s="9"/>
-      <c r="L34" s="9"/>
+      <c r="A34" s="8"/>
+      <c r="B34" s="8"/>
+      <c r="C34" s="8"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
+      <c r="H34" s="8"/>
+      <c r="I34" s="8"/>
+      <c r="J34" s="8"/>
+      <c r="K34" s="8"/>
+      <c r="L34" s="8"/>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A35" s="5">
+      <c r="A35" s="7">
         <v>5</v>
       </c>
       <c r="B35" t="s">
@@ -1590,764 +1602,810 @@
       <c r="C35">
         <v>90</v>
       </c>
-      <c r="D35" s="5"/>
-      <c r="E35" t="s">
-        <v>12</v>
-      </c>
-      <c r="F35">
-        <v>144</v>
-      </c>
-      <c r="G35" s="5"/>
-      <c r="J35" s="5"/>
-      <c r="K35" t="s">
-        <v>16</v>
-      </c>
-      <c r="L35">
-        <v>30</v>
-      </c>
+      <c r="D35" s="7"/>
+      <c r="G35" s="7"/>
+      <c r="J35" s="7"/>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A36" s="5"/>
+      <c r="A36" s="7"/>
       <c r="B36" t="s">
         <v>14</v>
       </c>
       <c r="C36">
         <v>73</v>
       </c>
-      <c r="D36" s="5"/>
-      <c r="E36" t="s">
-        <v>18</v>
-      </c>
-      <c r="F36">
-        <v>130</v>
-      </c>
-      <c r="G36" s="5"/>
-      <c r="J36" s="5"/>
+      <c r="D36" s="7"/>
+      <c r="G36" s="7"/>
+      <c r="J36" s="7"/>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A37" s="5"/>
+      <c r="A37" s="7"/>
       <c r="B37" t="s">
         <v>15</v>
       </c>
       <c r="C37">
         <v>43</v>
       </c>
-      <c r="D37" s="5"/>
-      <c r="E37" t="s">
-        <v>17</v>
-      </c>
-      <c r="F37">
-        <v>15</v>
-      </c>
-      <c r="G37" s="5"/>
-      <c r="J37" s="5"/>
+      <c r="D37" s="7"/>
+      <c r="G37" s="7"/>
+      <c r="J37" s="7"/>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A38" s="5"/>
+      <c r="A38" s="7"/>
       <c r="B38" t="s">
         <v>19</v>
       </c>
       <c r="C38">
         <v>15</v>
       </c>
-      <c r="D38" s="5"/>
-      <c r="G38" s="5"/>
-      <c r="J38" s="5"/>
+      <c r="D38" s="7"/>
+      <c r="G38" s="7"/>
+      <c r="J38" s="7"/>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A39" s="9"/>
-      <c r="B39" s="9"/>
-      <c r="C39" s="9"/>
-      <c r="D39" s="9"/>
-      <c r="E39" s="9"/>
-      <c r="F39" s="9"/>
-      <c r="G39" s="9"/>
-      <c r="H39" s="9"/>
-      <c r="I39" s="9"/>
-      <c r="J39" s="9"/>
-      <c r="K39" s="9"/>
-      <c r="L39" s="9"/>
+      <c r="A39" s="7"/>
+      <c r="B39" t="s">
+        <v>12</v>
+      </c>
+      <c r="C39">
+        <v>144</v>
+      </c>
+      <c r="D39" s="7"/>
+      <c r="G39" s="7"/>
+      <c r="J39" s="7"/>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A40" s="5">
+      <c r="A40" s="7"/>
+      <c r="B40" t="s">
+        <v>18</v>
+      </c>
+      <c r="C40">
+        <v>130</v>
+      </c>
+      <c r="D40" s="7"/>
+      <c r="G40" s="7"/>
+      <c r="J40" s="7"/>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A41" s="7"/>
+      <c r="B41" t="s">
+        <v>17</v>
+      </c>
+      <c r="C41">
+        <v>15</v>
+      </c>
+      <c r="D41" s="7"/>
+      <c r="G41" s="7"/>
+      <c r="J41" s="7"/>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A42" s="7"/>
+      <c r="B42" t="s">
+        <v>16</v>
+      </c>
+      <c r="C42">
+        <v>30</v>
+      </c>
+      <c r="D42" s="7"/>
+      <c r="G42" s="7"/>
+      <c r="J42" s="7"/>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A43" s="8"/>
+      <c r="B43" s="8"/>
+      <c r="C43" s="8"/>
+      <c r="D43" s="8"/>
+      <c r="E43" s="8"/>
+      <c r="F43" s="8"/>
+      <c r="G43" s="8"/>
+      <c r="H43" s="8"/>
+      <c r="I43" s="8"/>
+      <c r="J43" s="8"/>
+      <c r="K43" s="8"/>
+      <c r="L43" s="8"/>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A44" s="7">
         <v>4</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B44" t="s">
         <v>22</v>
       </c>
-      <c r="C40">
+      <c r="C44">
         <v>135</v>
       </c>
-      <c r="D40" s="5"/>
-      <c r="E40" t="s">
+      <c r="D44" s="7"/>
+      <c r="E44" t="s">
         <v>20</v>
       </c>
-      <c r="F40">
+      <c r="F44">
         <v>144</v>
       </c>
-      <c r="G40" s="5"/>
-      <c r="H40" t="s">
+      <c r="G44" s="7"/>
+      <c r="J44" s="7"/>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A45" s="7"/>
+      <c r="D45" s="7"/>
+      <c r="E45" t="s">
+        <v>21</v>
+      </c>
+      <c r="F45">
+        <v>130</v>
+      </c>
+      <c r="G45" s="7"/>
+      <c r="J45" s="7"/>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A46" s="7"/>
+      <c r="D46" s="7"/>
+      <c r="E46" t="s">
         <v>17</v>
       </c>
-      <c r="I40">
+      <c r="F46">
         <v>31</v>
       </c>
-      <c r="J40" s="5"/>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A41" s="5"/>
-      <c r="D41" s="5"/>
-      <c r="E41" t="s">
-        <v>21</v>
-      </c>
-      <c r="F41">
-        <v>130</v>
-      </c>
-      <c r="G41" s="5"/>
-      <c r="H41" t="s">
+      <c r="G46" s="7"/>
+      <c r="J46" s="7"/>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A47" s="7"/>
+      <c r="D47" s="7"/>
+      <c r="E47" t="s">
         <v>23</v>
       </c>
-      <c r="I41">
+      <c r="F47">
         <v>23</v>
       </c>
-      <c r="J41" s="5"/>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A42" s="5"/>
-      <c r="D42" s="5"/>
-      <c r="G42" s="5"/>
-      <c r="H42" t="s">
+      <c r="G47" s="7"/>
+      <c r="J47" s="7"/>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A48" s="7"/>
+      <c r="D48" s="7"/>
+      <c r="E48" t="s">
         <v>24</v>
       </c>
-      <c r="I42">
+      <c r="F48">
         <v>32</v>
       </c>
-      <c r="J42" s="5"/>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A43" s="5"/>
-      <c r="D43" s="5"/>
-      <c r="G43" s="5"/>
-      <c r="H43" t="s">
+      <c r="G48" s="7"/>
+      <c r="J48" s="7"/>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A49" s="7"/>
+      <c r="D49" s="7"/>
+      <c r="E49" t="s">
         <v>25</v>
       </c>
-      <c r="I43">
+      <c r="F49">
         <v>2</v>
       </c>
-      <c r="J43" s="5"/>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A44" s="5"/>
-      <c r="D44" s="5"/>
-      <c r="G44" s="5"/>
-      <c r="H44" t="s">
+      <c r="G49" s="7"/>
+      <c r="J49" s="7"/>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A50" s="7"/>
+      <c r="D50" s="7"/>
+      <c r="E50" t="s">
         <v>26</v>
       </c>
-      <c r="I44">
+      <c r="F50">
         <v>33</v>
       </c>
-      <c r="J44" s="5"/>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A45" s="9"/>
-      <c r="B45" s="9"/>
-      <c r="C45" s="9"/>
-      <c r="D45" s="9"/>
-      <c r="E45" s="9"/>
-      <c r="F45" s="9"/>
-      <c r="G45" s="9"/>
-      <c r="H45" s="9"/>
-      <c r="I45" s="9"/>
-      <c r="J45" s="9"/>
-      <c r="K45" s="9"/>
-      <c r="L45" s="9"/>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A46" s="5">
+      <c r="G50" s="7"/>
+      <c r="J50" s="7"/>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A51" s="8"/>
+      <c r="B51" s="8"/>
+      <c r="C51" s="8"/>
+      <c r="D51" s="8"/>
+      <c r="E51" s="8"/>
+      <c r="F51" s="8"/>
+      <c r="G51" s="8"/>
+      <c r="H51" s="8"/>
+      <c r="I51" s="8"/>
+      <c r="J51" s="8"/>
+      <c r="K51" s="8"/>
+      <c r="L51" s="8"/>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A52" s="7">
         <v>3</v>
       </c>
-      <c r="D46" s="5"/>
-      <c r="G46" s="5"/>
-      <c r="J46" s="5"/>
-      <c r="K46" t="s">
+      <c r="D52" s="7"/>
+      <c r="G52" s="7"/>
+      <c r="J52" s="7"/>
+      <c r="K52" t="s">
         <v>6</v>
       </c>
-      <c r="L46">
+      <c r="L52">
         <v>144</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A47" s="5"/>
-      <c r="D47" s="5"/>
-      <c r="G47" s="5"/>
-      <c r="J47" s="5"/>
-      <c r="K47" t="s">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A53" s="7"/>
+      <c r="D53" s="7"/>
+      <c r="G53" s="7"/>
+      <c r="J53" s="7"/>
+      <c r="K53" t="s">
         <v>27</v>
       </c>
-      <c r="L47">
+      <c r="L53">
         <v>58</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A48" s="5"/>
-      <c r="D48" s="5"/>
-      <c r="G48" s="5"/>
-      <c r="J48" s="5"/>
-      <c r="K48" t="s">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A54" s="7"/>
+      <c r="D54" s="7"/>
+      <c r="G54" s="7"/>
+      <c r="J54" s="7"/>
+      <c r="K54" t="s">
         <v>28</v>
       </c>
-      <c r="L48">
+      <c r="L54">
         <v>70</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A49" s="5"/>
-      <c r="D49" s="5"/>
-      <c r="G49" s="5"/>
-      <c r="J49" s="5"/>
-      <c r="K49" t="s">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A55" s="7"/>
+      <c r="D55" s="7"/>
+      <c r="G55" s="7"/>
+      <c r="J55" s="7"/>
+      <c r="K55" t="s">
         <v>29</v>
       </c>
-      <c r="L49">
+      <c r="L55">
         <v>47</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A50" s="5"/>
-      <c r="D50" s="5"/>
-      <c r="G50" s="5"/>
-      <c r="J50" s="5"/>
-      <c r="K50" t="s">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A56" s="7"/>
+      <c r="D56" s="7"/>
+      <c r="G56" s="7"/>
+      <c r="J56" s="7"/>
+      <c r="K56" t="s">
         <v>30</v>
       </c>
-      <c r="L50">
+      <c r="L56">
         <v>45</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A51" s="5"/>
-      <c r="D51" s="5"/>
-      <c r="G51" s="5"/>
-      <c r="J51" s="5"/>
-      <c r="K51" t="s">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A57" s="7"/>
+      <c r="D57" s="7"/>
+      <c r="G57" s="7"/>
+      <c r="J57" s="7"/>
+      <c r="K57" t="s">
         <v>31</v>
       </c>
-      <c r="L51">
+      <c r="L57">
         <v>45</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A52" s="5"/>
-      <c r="D52" s="5"/>
-      <c r="G52" s="5"/>
-      <c r="J52" s="5"/>
-      <c r="K52" t="s">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A58" s="7"/>
+      <c r="D58" s="7"/>
+      <c r="G58" s="7"/>
+      <c r="J58" s="7"/>
+      <c r="K58" t="s">
         <v>32</v>
       </c>
-      <c r="L52">
+      <c r="L58">
         <v>45</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A53" s="5"/>
-      <c r="D53" s="5"/>
-      <c r="G53" s="5"/>
-      <c r="J53" s="5"/>
-      <c r="K53" t="s">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A59" s="7"/>
+      <c r="D59" s="7"/>
+      <c r="G59" s="7"/>
+      <c r="J59" s="7"/>
+      <c r="K59" t="s">
         <v>33</v>
       </c>
-      <c r="L53">
+      <c r="L59">
         <v>86</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A54" s="9"/>
-      <c r="B54" s="9"/>
-      <c r="C54" s="9"/>
-      <c r="D54" s="9"/>
-      <c r="E54" s="9"/>
-      <c r="F54" s="9"/>
-      <c r="G54" s="9"/>
-      <c r="H54" s="9"/>
-      <c r="I54" s="9"/>
-      <c r="J54" s="9"/>
-      <c r="K54" s="9"/>
-      <c r="L54" s="9"/>
-    </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A55" s="5">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A60" s="8"/>
+      <c r="B60" s="8"/>
+      <c r="C60" s="8"/>
+      <c r="D60" s="8"/>
+      <c r="E60" s="8"/>
+      <c r="F60" s="8"/>
+      <c r="G60" s="8"/>
+      <c r="H60" s="8"/>
+      <c r="I60" s="8"/>
+      <c r="J60" s="8"/>
+      <c r="K60" s="8"/>
+      <c r="L60" s="8"/>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A61" s="7">
         <v>2</v>
       </c>
-      <c r="D55" s="5"/>
-      <c r="E55" t="s">
+      <c r="B61" t="s">
+        <v>6</v>
+      </c>
+      <c r="C61">
+        <v>71</v>
+      </c>
+      <c r="D61" s="7"/>
+      <c r="E61" t="s">
         <v>34</v>
       </c>
-      <c r="F55">
+      <c r="F61">
         <v>141</v>
       </c>
-      <c r="G55" s="5"/>
-      <c r="J55" s="5"/>
-      <c r="K55" t="s">
+      <c r="G61" s="7"/>
+      <c r="J61" s="7"/>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A62" s="7"/>
+      <c r="B62" t="s">
+        <v>23</v>
+      </c>
+      <c r="C62">
+        <v>45</v>
+      </c>
+      <c r="D62" s="7"/>
+      <c r="E62" t="s">
+        <v>35</v>
+      </c>
+      <c r="F62">
+        <v>186</v>
+      </c>
+      <c r="G62" s="7"/>
+      <c r="J62" s="7"/>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A63" s="7"/>
+      <c r="B63" t="s">
+        <v>37</v>
+      </c>
+      <c r="C63">
+        <v>200</v>
+      </c>
+      <c r="D63" s="7"/>
+      <c r="E63" t="s">
+        <v>36</v>
+      </c>
+      <c r="F63">
+        <v>45</v>
+      </c>
+      <c r="G63" s="7"/>
+      <c r="J63" s="7"/>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A64" s="7"/>
+      <c r="B64" t="s">
+        <v>38</v>
+      </c>
+      <c r="C64">
+        <v>140</v>
+      </c>
+      <c r="D64" s="7"/>
+      <c r="G64" s="7"/>
+      <c r="J64" s="7"/>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A65" s="7"/>
+      <c r="B65" t="s">
         <v>39</v>
       </c>
-      <c r="L55">
+      <c r="C65">
         <v>42</v>
       </c>
-    </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A56" s="5"/>
-      <c r="D56" s="5"/>
-      <c r="E56" t="s">
-        <v>35</v>
-      </c>
-      <c r="F56">
-        <v>186</v>
-      </c>
-      <c r="G56" s="5"/>
-      <c r="J56" s="5"/>
-    </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A57" s="5"/>
-      <c r="D57" s="5"/>
-      <c r="E57" t="s">
+      <c r="D65" s="7"/>
+      <c r="G65" s="7"/>
+      <c r="J65" s="7"/>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A66" s="8"/>
+      <c r="B66" s="8"/>
+      <c r="C66" s="8"/>
+      <c r="D66" s="8"/>
+      <c r="E66" s="8"/>
+      <c r="F66" s="8"/>
+      <c r="G66" s="8"/>
+      <c r="H66" s="8"/>
+      <c r="I66" s="8"/>
+      <c r="J66" s="8"/>
+      <c r="K66" s="8"/>
+      <c r="L66" s="8"/>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A67" s="7">
+        <v>1</v>
+      </c>
+      <c r="D67" s="7"/>
+      <c r="E67" t="s">
+        <v>41</v>
+      </c>
+      <c r="F67">
+        <v>90</v>
+      </c>
+      <c r="G67" s="7"/>
+      <c r="H67" t="s">
+        <v>40</v>
+      </c>
+      <c r="I67">
+        <v>144</v>
+      </c>
+      <c r="J67" s="7"/>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A68" s="7"/>
+      <c r="D68" s="7"/>
+      <c r="E68" t="s">
+        <v>42</v>
+      </c>
+      <c r="F68">
+        <v>46</v>
+      </c>
+      <c r="G68" s="7"/>
+      <c r="H68" t="s">
+        <v>40</v>
+      </c>
+      <c r="I68">
+        <v>141</v>
+      </c>
+      <c r="J68" s="7"/>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A69" s="7"/>
+      <c r="D69" s="7"/>
+      <c r="E69" t="s">
+        <v>43</v>
+      </c>
+      <c r="F69">
+        <v>104</v>
+      </c>
+      <c r="G69" s="7"/>
+      <c r="J69" s="7"/>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A70" s="7"/>
+      <c r="D70" s="7"/>
+      <c r="E70" t="s">
+        <v>44</v>
+      </c>
+      <c r="F70">
+        <v>46</v>
+      </c>
+      <c r="G70" s="7"/>
+      <c r="J70" s="7"/>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A71" s="7"/>
+      <c r="D71" s="7"/>
+      <c r="E71" t="s">
+        <v>44</v>
+      </c>
+      <c r="F71">
+        <v>71</v>
+      </c>
+      <c r="G71" s="7"/>
+      <c r="J71" s="7"/>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A72" s="7"/>
+      <c r="D72" s="7"/>
+      <c r="E72" t="s">
+        <v>45</v>
+      </c>
+      <c r="F72">
+        <v>68</v>
+      </c>
+      <c r="G72" s="7"/>
+      <c r="J72" s="7"/>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A73" s="8"/>
+      <c r="B73" s="8"/>
+      <c r="C73" s="8"/>
+      <c r="D73" s="8"/>
+      <c r="E73" s="8"/>
+      <c r="F73" s="8"/>
+      <c r="G73" s="8"/>
+      <c r="H73" s="8"/>
+      <c r="I73" s="8"/>
+      <c r="J73" s="8"/>
+      <c r="K73" s="8"/>
+      <c r="L73" s="8"/>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A74" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="D74" s="7"/>
+      <c r="E74" t="s">
+        <v>46</v>
+      </c>
+      <c r="F74">
+        <v>403</v>
+      </c>
+      <c r="G74" s="7"/>
+      <c r="J74" s="7"/>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A75" s="7"/>
+      <c r="D75" s="7"/>
+      <c r="E75" t="s">
+        <v>47</v>
+      </c>
+      <c r="F75">
+        <v>100</v>
+      </c>
+      <c r="G75" s="7"/>
+      <c r="J75" s="7"/>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A76" s="7"/>
+      <c r="D76" s="7"/>
+      <c r="E76" t="s">
+        <v>48</v>
+      </c>
+      <c r="F76">
+        <v>70</v>
+      </c>
+      <c r="G76" s="7"/>
+      <c r="J76" s="7"/>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A77" s="7"/>
+      <c r="D77" s="7"/>
+      <c r="E77" t="s">
+        <v>49</v>
+      </c>
+      <c r="F77">
+        <v>43</v>
+      </c>
+      <c r="G77" s="7"/>
+      <c r="J77" s="7"/>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A78" s="7"/>
+      <c r="D78" s="7"/>
+      <c r="E78" t="s">
+        <v>50</v>
+      </c>
+      <c r="F78">
+        <v>67</v>
+      </c>
+      <c r="G78" s="7"/>
+      <c r="J78" s="7"/>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A79" s="7"/>
+      <c r="D79" s="7"/>
+      <c r="E79" t="s">
+        <v>51</v>
+      </c>
+      <c r="F79">
+        <v>33</v>
+      </c>
+      <c r="G79" s="7"/>
+      <c r="J79" s="7"/>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A80" s="8"/>
+      <c r="B80" s="8"/>
+      <c r="C80" s="8"/>
+      <c r="D80" s="8"/>
+      <c r="E80" s="8"/>
+      <c r="F80" s="8"/>
+      <c r="G80" s="8"/>
+      <c r="H80" s="8"/>
+      <c r="I80" s="8"/>
+      <c r="J80" s="8"/>
+      <c r="K80" s="8"/>
+      <c r="L80" s="8"/>
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A81" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="B81" t="s">
+        <v>54</v>
+      </c>
+      <c r="C81">
+        <v>210</v>
+      </c>
+      <c r="D81" s="7"/>
+      <c r="E81" t="s">
+        <v>53</v>
+      </c>
+      <c r="F81">
+        <v>371</v>
+      </c>
+      <c r="G81" s="7"/>
+      <c r="J81" s="7"/>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A82" s="7"/>
+      <c r="D82" s="7"/>
+      <c r="E82" t="s">
+        <v>55</v>
+      </c>
+      <c r="F82">
+        <v>610</v>
+      </c>
+      <c r="G82" s="7"/>
+      <c r="J82" s="7"/>
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A83" s="7"/>
+      <c r="D83" s="7"/>
+      <c r="E83" t="s">
+        <v>56</v>
+      </c>
+      <c r="F83">
+        <v>350</v>
+      </c>
+      <c r="G83" s="7"/>
+      <c r="J83" s="7"/>
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A84" s="7"/>
+      <c r="D84" s="7"/>
+      <c r="E84" t="s">
+        <v>58</v>
+      </c>
+      <c r="F84">
+        <v>410</v>
+      </c>
+      <c r="G84" s="7"/>
+      <c r="J84" s="7"/>
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A85" s="7"/>
+      <c r="D85" s="7"/>
+      <c r="E85" t="s">
+        <v>57</v>
+      </c>
+      <c r="F85">
+        <v>843</v>
+      </c>
+      <c r="G85" s="7"/>
+      <c r="J85" s="7"/>
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A86" s="7"/>
+      <c r="D86" s="7"/>
+      <c r="E86" t="s">
+        <v>17</v>
+      </c>
+      <c r="F86">
+        <v>38</v>
+      </c>
+      <c r="G86" s="7"/>
+      <c r="J86" s="7"/>
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A87" s="7"/>
+      <c r="D87" s="7"/>
+      <c r="E87" t="s">
         <v>6</v>
       </c>
-      <c r="F57">
-        <v>71</v>
-      </c>
-      <c r="G57" s="5"/>
-      <c r="J57" s="5"/>
-    </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A58" s="5"/>
-      <c r="D58" s="5"/>
-      <c r="E58" t="s">
-        <v>36</v>
-      </c>
-      <c r="F58">
-        <v>45</v>
-      </c>
-      <c r="G58" s="5"/>
-      <c r="J58" s="5"/>
-    </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A59" s="5"/>
-      <c r="D59" s="5"/>
-      <c r="E59" t="s">
-        <v>23</v>
-      </c>
-      <c r="F59">
-        <v>45</v>
-      </c>
-      <c r="G59" s="5"/>
-      <c r="J59" s="5"/>
-    </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A60" s="5"/>
-      <c r="D60" s="5"/>
-      <c r="E60" t="s">
-        <v>37</v>
-      </c>
-      <c r="F60">
-        <v>200</v>
-      </c>
-      <c r="G60" s="5"/>
-      <c r="J60" s="5"/>
-    </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A61" s="5"/>
-      <c r="D61" s="5"/>
-      <c r="E61" t="s">
-        <v>38</v>
-      </c>
-      <c r="F61">
+      <c r="F87">
+        <v>81</v>
+      </c>
+      <c r="G87" s="7"/>
+      <c r="J87" s="7"/>
+    </row>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A88" s="7"/>
+      <c r="D88" s="7"/>
+      <c r="E88" t="s">
+        <v>6</v>
+      </c>
+      <c r="F88">
+        <v>74</v>
+      </c>
+      <c r="G88" s="7"/>
+      <c r="J88" s="7"/>
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A89" s="7"/>
+      <c r="D89" s="7"/>
+      <c r="E89" t="s">
+        <v>39</v>
+      </c>
+      <c r="F89">
+        <v>33</v>
+      </c>
+      <c r="G89" s="7"/>
+      <c r="J89" s="7"/>
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A90" s="8"/>
+      <c r="B90" s="8"/>
+      <c r="C90" s="8"/>
+      <c r="D90" s="8"/>
+      <c r="E90" s="8"/>
+      <c r="F90" s="8"/>
+      <c r="G90" s="8"/>
+      <c r="H90" s="8"/>
+      <c r="I90" s="8"/>
+      <c r="J90" s="8"/>
+      <c r="K90" s="8"/>
+      <c r="L90" s="8"/>
+    </row>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A91" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D91" s="7"/>
+      <c r="E91" t="s">
+        <v>60</v>
+      </c>
+      <c r="F91">
+        <v>160</v>
+      </c>
+      <c r="G91" s="7"/>
+      <c r="J91" s="7"/>
+    </row>
+    <row r="92" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A92" s="7"/>
+      <c r="D92" s="7"/>
+      <c r="E92" t="s">
+        <v>61</v>
+      </c>
+      <c r="F92">
         <v>140</v>
       </c>
-      <c r="G61" s="5"/>
-      <c r="J61" s="5"/>
-    </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A62" s="9"/>
-      <c r="B62" s="9"/>
-      <c r="C62" s="9"/>
-      <c r="D62" s="9"/>
-      <c r="E62" s="9"/>
-      <c r="F62" s="9"/>
-      <c r="G62" s="9"/>
-      <c r="H62" s="9"/>
-      <c r="I62" s="9"/>
-      <c r="J62" s="9"/>
-      <c r="K62" s="9"/>
-      <c r="L62" s="9"/>
-    </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A63" s="5">
-        <v>1</v>
-      </c>
-      <c r="D63" s="5"/>
-      <c r="E63" t="s">
-        <v>41</v>
-      </c>
-      <c r="F63">
-        <v>90</v>
-      </c>
-      <c r="G63" s="5"/>
-      <c r="H63" t="s">
-        <v>40</v>
-      </c>
-      <c r="I63">
-        <v>144</v>
-      </c>
-      <c r="J63" s="5"/>
-    </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A64" s="5"/>
-      <c r="D64" s="5"/>
-      <c r="E64" t="s">
-        <v>42</v>
-      </c>
-      <c r="F64">
-        <v>46</v>
-      </c>
-      <c r="G64" s="5"/>
-      <c r="H64" t="s">
-        <v>40</v>
-      </c>
-      <c r="I64">
-        <v>141</v>
-      </c>
-      <c r="J64" s="5"/>
-    </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A65" s="5"/>
-      <c r="D65" s="5"/>
-      <c r="E65" t="s">
-        <v>43</v>
-      </c>
-      <c r="F65">
-        <v>104</v>
-      </c>
-      <c r="G65" s="5"/>
-      <c r="J65" s="5"/>
-    </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A66" s="5"/>
-      <c r="D66" s="5"/>
-      <c r="E66" t="s">
-        <v>44</v>
-      </c>
-      <c r="F66">
-        <v>46</v>
-      </c>
-      <c r="G66" s="5"/>
-      <c r="J66" s="5"/>
-    </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A67" s="5"/>
-      <c r="D67" s="5"/>
-      <c r="E67" t="s">
-        <v>44</v>
-      </c>
-      <c r="F67">
-        <v>71</v>
-      </c>
-      <c r="G67" s="5"/>
-      <c r="J67" s="5"/>
-    </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A68" s="5"/>
-      <c r="D68" s="5"/>
-      <c r="E68" t="s">
-        <v>45</v>
-      </c>
-      <c r="F68">
-        <v>68</v>
-      </c>
-      <c r="G68" s="5"/>
-      <c r="J68" s="5"/>
-    </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A69" s="9"/>
-      <c r="B69" s="9"/>
-      <c r="C69" s="9"/>
-      <c r="D69" s="9"/>
-      <c r="E69" s="9"/>
-      <c r="F69" s="9"/>
-      <c r="G69" s="9"/>
-      <c r="H69" s="9"/>
-      <c r="I69" s="9"/>
-      <c r="J69" s="9"/>
-      <c r="K69" s="9"/>
-      <c r="L69" s="9"/>
-    </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A70" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="D70" s="5"/>
-      <c r="E70" t="s">
-        <v>46</v>
-      </c>
-      <c r="F70">
-        <v>403</v>
-      </c>
-      <c r="G70" s="5"/>
-      <c r="H70" t="s">
-        <v>48</v>
-      </c>
-      <c r="I70">
-        <v>70</v>
-      </c>
-      <c r="J70" s="5"/>
-    </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A71" s="5"/>
-      <c r="D71" s="5"/>
-      <c r="E71" t="s">
-        <v>47</v>
-      </c>
-      <c r="F71">
-        <v>100</v>
-      </c>
-      <c r="G71" s="5"/>
-      <c r="H71" t="s">
-        <v>49</v>
-      </c>
-      <c r="I71">
-        <v>43</v>
-      </c>
-      <c r="J71" s="5"/>
-    </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A72" s="5"/>
-      <c r="D72" s="5"/>
-      <c r="G72" s="5"/>
-      <c r="H72" t="s">
-        <v>50</v>
-      </c>
-      <c r="I72">
-        <v>67</v>
-      </c>
-      <c r="J72" s="5"/>
-    </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A73" s="5"/>
-      <c r="D73" s="5"/>
-      <c r="G73" s="5"/>
-      <c r="H73" t="s">
-        <v>51</v>
-      </c>
-      <c r="I73">
-        <v>33</v>
-      </c>
-      <c r="J73" s="5"/>
-    </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A74" s="9"/>
-      <c r="B74" s="9"/>
-      <c r="C74" s="9"/>
-      <c r="D74" s="9"/>
-      <c r="E74" s="9"/>
-      <c r="F74" s="9"/>
-      <c r="G74" s="9"/>
-      <c r="H74" s="9"/>
-      <c r="I74" s="9"/>
-      <c r="J74" s="9"/>
-      <c r="K74" s="9"/>
-      <c r="L74" s="9"/>
-    </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A75" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="B75" t="s">
-        <v>54</v>
-      </c>
-      <c r="C75">
-        <v>210</v>
-      </c>
-      <c r="D75" s="5"/>
-      <c r="E75" t="s">
-        <v>53</v>
-      </c>
-      <c r="F75">
-        <v>371</v>
-      </c>
-      <c r="G75" s="5"/>
-      <c r="J75" s="5"/>
-    </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A76" s="5"/>
-      <c r="D76" s="5"/>
-      <c r="E76" t="s">
-        <v>55</v>
-      </c>
-      <c r="F76">
-        <v>610</v>
-      </c>
-      <c r="G76" s="5"/>
-      <c r="J76" s="5"/>
-    </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A77" s="5"/>
-      <c r="D77" s="5"/>
-      <c r="E77" t="s">
-        <v>56</v>
-      </c>
-      <c r="F77">
-        <v>350</v>
-      </c>
-      <c r="G77" s="5"/>
-      <c r="J77" s="5"/>
-    </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A78" s="5"/>
-      <c r="D78" s="5"/>
-      <c r="E78" t="s">
-        <v>58</v>
-      </c>
-      <c r="F78">
-        <v>410</v>
-      </c>
-      <c r="G78" s="5"/>
-      <c r="J78" s="5"/>
-    </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A79" s="5"/>
-      <c r="D79" s="5"/>
-      <c r="E79" t="s">
-        <v>57</v>
-      </c>
-      <c r="F79">
-        <v>843</v>
-      </c>
-      <c r="G79" s="5"/>
-      <c r="J79" s="5"/>
-    </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A80" s="5"/>
-      <c r="D80" s="5"/>
-      <c r="E80" t="s">
-        <v>17</v>
-      </c>
-      <c r="F80">
-        <v>38</v>
-      </c>
-      <c r="G80" s="5"/>
-      <c r="J80" s="5"/>
-    </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A81" s="5"/>
-      <c r="D81" s="5"/>
-      <c r="E81" t="s">
-        <v>6</v>
-      </c>
-      <c r="F81">
-        <v>81</v>
-      </c>
-      <c r="G81" s="5"/>
-      <c r="J81" s="5"/>
-    </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A82" s="5"/>
-      <c r="D82" s="5"/>
-      <c r="E82" t="s">
-        <v>6</v>
-      </c>
-      <c r="F82">
-        <v>74</v>
-      </c>
-      <c r="G82" s="5"/>
-      <c r="J82" s="5"/>
-    </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A83" s="5"/>
-      <c r="D83" s="5"/>
-      <c r="E83" t="s">
-        <v>39</v>
-      </c>
-      <c r="F83">
-        <v>33</v>
-      </c>
-      <c r="G83" s="5"/>
-      <c r="J83" s="5"/>
-    </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A84" s="9"/>
-      <c r="B84" s="9"/>
-      <c r="C84" s="9"/>
-      <c r="D84" s="9"/>
-      <c r="E84" s="9"/>
-      <c r="F84" s="9"/>
-      <c r="G84" s="9"/>
-      <c r="H84" s="9"/>
-      <c r="I84" s="9"/>
-      <c r="J84" s="9"/>
-      <c r="K84" s="9"/>
-      <c r="L84" s="9"/>
-    </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A85" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="D85" s="5"/>
-      <c r="E85" t="s">
-        <v>60</v>
-      </c>
-      <c r="F85">
-        <v>160</v>
-      </c>
-      <c r="G85" s="5"/>
-      <c r="J85" s="5"/>
-    </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A86" s="5"/>
-      <c r="D86" s="5"/>
-      <c r="E86" t="s">
-        <v>61</v>
-      </c>
-      <c r="F86">
-        <v>140</v>
-      </c>
-      <c r="G86" s="5"/>
-      <c r="J86" s="5"/>
-    </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A87" s="9"/>
-      <c r="B87" s="9"/>
-      <c r="C87" s="9"/>
-      <c r="D87" s="9"/>
-      <c r="E87" s="9"/>
-      <c r="F87" s="9"/>
-      <c r="G87" s="9"/>
-      <c r="H87" s="9"/>
-      <c r="I87" s="9"/>
-      <c r="J87" s="9"/>
-      <c r="K87" s="9"/>
-      <c r="L87" s="9"/>
+      <c r="G92" s="7"/>
+      <c r="J92" s="7"/>
+    </row>
+    <row r="93" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A93" s="8"/>
+      <c r="B93" s="8"/>
+      <c r="C93" s="8"/>
+      <c r="D93" s="8"/>
+      <c r="E93" s="8"/>
+      <c r="F93" s="8"/>
+      <c r="G93" s="8"/>
+      <c r="H93" s="8"/>
+      <c r="I93" s="8"/>
+      <c r="J93" s="8"/>
+      <c r="K93" s="8"/>
+      <c r="L93" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="54">
-    <mergeCell ref="A15:AA15"/>
-    <mergeCell ref="J75:J83"/>
-    <mergeCell ref="G75:G83"/>
-    <mergeCell ref="D75:D83"/>
-    <mergeCell ref="D85:D86"/>
-    <mergeCell ref="G85:G86"/>
-    <mergeCell ref="J85:J86"/>
-    <mergeCell ref="J63:J68"/>
-    <mergeCell ref="G63:G68"/>
-    <mergeCell ref="D63:D68"/>
-    <mergeCell ref="J70:J73"/>
-    <mergeCell ref="G70:G73"/>
-    <mergeCell ref="D70:D73"/>
-    <mergeCell ref="D46:D53"/>
-    <mergeCell ref="G46:G53"/>
-    <mergeCell ref="J46:J53"/>
-    <mergeCell ref="D55:D61"/>
-    <mergeCell ref="G55:G61"/>
-    <mergeCell ref="J55:J61"/>
-    <mergeCell ref="A87:L87"/>
+    <mergeCell ref="J74:J79"/>
+    <mergeCell ref="A25:A33"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A3:A13"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="A35:A42"/>
+    <mergeCell ref="D35:D42"/>
+    <mergeCell ref="A91:A92"/>
+    <mergeCell ref="A81:A89"/>
+    <mergeCell ref="A51:L51"/>
+    <mergeCell ref="A90:L90"/>
+    <mergeCell ref="A44:A50"/>
+    <mergeCell ref="D44:D50"/>
+    <mergeCell ref="G44:G50"/>
+    <mergeCell ref="J44:J50"/>
+    <mergeCell ref="A61:A65"/>
+    <mergeCell ref="D61:D65"/>
+    <mergeCell ref="G61:G65"/>
+    <mergeCell ref="J61:J65"/>
+    <mergeCell ref="A74:A79"/>
+    <mergeCell ref="D74:D79"/>
+    <mergeCell ref="G74:G79"/>
+    <mergeCell ref="A66:L66"/>
+    <mergeCell ref="A73:L73"/>
+    <mergeCell ref="A80:L80"/>
+    <mergeCell ref="A52:A59"/>
+    <mergeCell ref="A67:A72"/>
+    <mergeCell ref="G35:G42"/>
+    <mergeCell ref="J35:J42"/>
+    <mergeCell ref="A93:L93"/>
     <mergeCell ref="A21:L21"/>
     <mergeCell ref="A24:L24"/>
     <mergeCell ref="D25:D33"/>
@@ -2356,32 +2414,22 @@
     <mergeCell ref="J22:J23"/>
     <mergeCell ref="G25:G33"/>
     <mergeCell ref="J25:J33"/>
-    <mergeCell ref="D35:D38"/>
     <mergeCell ref="A34:L34"/>
-    <mergeCell ref="A39:L39"/>
-    <mergeCell ref="A54:L54"/>
-    <mergeCell ref="A62:L62"/>
-    <mergeCell ref="A69:L69"/>
-    <mergeCell ref="A74:L74"/>
-    <mergeCell ref="G35:G38"/>
-    <mergeCell ref="J35:J38"/>
-    <mergeCell ref="D40:D44"/>
-    <mergeCell ref="G40:G44"/>
-    <mergeCell ref="A40:A44"/>
-    <mergeCell ref="A46:A53"/>
-    <mergeCell ref="A55:A61"/>
-    <mergeCell ref="A63:A68"/>
-    <mergeCell ref="A70:A73"/>
-    <mergeCell ref="A85:A86"/>
-    <mergeCell ref="A75:A83"/>
-    <mergeCell ref="A45:L45"/>
-    <mergeCell ref="A84:L84"/>
-    <mergeCell ref="J40:J44"/>
-    <mergeCell ref="A25:A33"/>
-    <mergeCell ref="A35:A38"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A3:A13"/>
-    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="A43:L43"/>
+    <mergeCell ref="A60:L60"/>
+    <mergeCell ref="A15:AA15"/>
+    <mergeCell ref="J81:J89"/>
+    <mergeCell ref="G81:G89"/>
+    <mergeCell ref="D81:D89"/>
+    <mergeCell ref="D91:D92"/>
+    <mergeCell ref="G91:G92"/>
+    <mergeCell ref="J91:J92"/>
+    <mergeCell ref="J67:J72"/>
+    <mergeCell ref="G67:G72"/>
+    <mergeCell ref="D67:D72"/>
+    <mergeCell ref="D52:D59"/>
+    <mergeCell ref="G52:G59"/>
+    <mergeCell ref="J52:J59"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
